--- a/data_analysis/task_3.xlsx
+++ b/data_analysis/task_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F730EE23-9903-43CD-BB9E-448AD519C674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D7F95-AC84-4255-8628-E8E2FBFE8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="4920" windowWidth="33870" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27975" yWindow="4425" windowWidth="21960" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task3" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Group</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>LOC_TEST</t>
+  </si>
+  <si>
+    <t>LOC_PROD</t>
+  </si>
+  <si>
+    <t>LOC_TOT</t>
   </si>
 </sst>
 </file>
@@ -532,19 +541,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="10.7109375" customWidth="1"/>
+    <col min="1" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,8 +599,17 @@
       <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -639,8 +657,17 @@
         <f t="shared" ref="O2:O10" si="1">SUM(M2:N2)</f>
         <v>20</v>
       </c>
+      <c r="P2" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>50</v>
+      </c>
+      <c r="R2" s="7">
+        <v>150</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -688,8 +715,17 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
+      <c r="P3" s="7">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>100</v>
+      </c>
+      <c r="R3" s="7">
+        <v>232</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -737,8 +773,17 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
+      <c r="P4" s="7">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>110</v>
+      </c>
+      <c r="R4" s="7">
+        <v>218</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -786,8 +831,17 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
+      <c r="P5" s="7">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>77</v>
+      </c>
+      <c r="R5" s="7">
+        <v>164</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -835,8 +889,17 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
+      <c r="P6" s="7">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>8</v>
+      </c>
+      <c r="R6" s="7">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -884,8 +947,17 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="P7" s="7">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>73</v>
+      </c>
+      <c r="R7" s="7">
+        <v>175</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -933,8 +1005,17 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="P8" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>79</v>
+      </c>
+      <c r="R8" s="7">
+        <v>160</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -982,8 +1063,17 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="P9" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>50</v>
+      </c>
+      <c r="R9" s="7">
+        <v>150</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1121,17 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="P10" s="7">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>8</v>
+      </c>
+      <c r="R10" s="7">
+        <v>93</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F11" s="9"/>
     </row>
   </sheetData>

--- a/data_analysis/task_3.xlsx
+++ b/data_analysis/task_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D7F95-AC84-4255-8628-E8E2FBFE8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9FBBA8-B2E1-4130-A525-31694B4EC5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27975" yWindow="4425" windowWidth="21960" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10950" yWindow="3135" windowWidth="26760" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task3" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Group</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>LOC_TOT</t>
+  </si>
+  <si>
+    <t>#TUS</t>
   </si>
 </sst>
 </file>
@@ -541,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +556,7 @@
     <col min="1" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,40 +579,43 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -632,42 +638,45 @@
         <v>100</v>
       </c>
       <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>20</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>8</v>
       </c>
-      <c r="L2" s="7">
-        <f t="shared" ref="L2:L10" si="0">SUM(J2:K2)</f>
+      <c r="M2" s="7">
+        <f t="shared" ref="M2:M10" si="0">SUM(K2:L2)</f>
         <v>28</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>20</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="7">
-        <f t="shared" ref="O2:O10" si="1">SUM(M2:N2)</f>
+      <c r="P2" s="7">
+        <f t="shared" ref="P2:P10" si="1">SUM(N2:O2)</f>
         <v>20</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>100</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>50</v>
       </c>
-      <c r="R2" s="7">
+      <c r="S2" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -690,42 +699,45 @@
         <v>100</v>
       </c>
       <c r="H3" s="7">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
         <v>18</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>3</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>29</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>19</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>34</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Q3" s="7">
         <v>132</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="7">
         <v>100</v>
       </c>
-      <c r="R3" s="7">
+      <c r="S3" s="7">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -748,42 +760,45 @@
         <v>100</v>
       </c>
       <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
         <v>9</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>30</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>27</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>32</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>25</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="7">
         <v>108</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="7">
         <v>110</v>
       </c>
-      <c r="R4" s="7">
+      <c r="S4" s="7">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -806,42 +821,45 @@
         <v>80</v>
       </c>
       <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
         <v>11</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>19</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>12</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>19</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>87</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <v>77</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -864,42 +882,45 @@
         <v>80</v>
       </c>
       <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>16</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>20</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>9</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>87</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <v>8</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -922,42 +943,45 @@
         <v>85</v>
       </c>
       <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
         <v>12</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>3</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>19</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>13</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>25</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>102</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <v>73</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -980,42 +1004,45 @@
         <v>90</v>
       </c>
       <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
         <v>12</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>15</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>13</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>18</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>81</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>79</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1038,42 +1065,45 @@
         <v>100</v>
       </c>
       <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
         <v>7</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>20</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>8</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>20</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>100</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <v>50</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1096,49 +1126,49 @@
         <v>85</v>
       </c>
       <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>23</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>25</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>85</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="7">
         <v>8</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L2:L10" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>